--- a/Pipeline_2-Vulnerability/Labor/Outputs/Data/Labor_Index.xlsx
+++ b/Pipeline_2-Vulnerability/Labor/Outputs/Data/Labor_Index.xlsx
@@ -402,13 +402,13 @@
         <v>0.1873278236914601</v>
       </c>
       <c r="D2">
-        <v>0.316996211544384</v>
+        <v>0.6830037884556159</v>
       </c>
       <c r="E2">
         <v>0.2144927536231884</v>
       </c>
       <c r="F2">
-        <v>0.337417389292135</v>
+        <v>0.2911941964050077</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +424,13 @@
         <v>0.1597796143250689</v>
       </c>
       <c r="D3">
-        <v>0.3737033403259184</v>
+        <v>0.6262966596740815</v>
       </c>
       <c r="E3">
         <v>0.1971014492753623</v>
       </c>
       <c r="F3">
-        <v>0.3071221095200231</v>
+        <v>0.2489128716307519</v>
       </c>
     </row>
     <row r="4">
@@ -446,13 +446,13 @@
         <v>0.4077134986225895</v>
       </c>
       <c r="D4">
-        <v>0.4390136044186366</v>
+        <v>0.5609863955813634</v>
       </c>
       <c r="E4">
         <v>0.2869565217391304</v>
       </c>
       <c r="F4">
-        <v>0.5860737482042857</v>
+        <v>0.4438577940531828</v>
       </c>
     </row>
     <row r="5">
@@ -468,13 +468,13 @@
         <v>0.1763085399449036</v>
       </c>
       <c r="D5">
-        <v>0.3497911565467155</v>
+        <v>0.6502088434532844</v>
       </c>
       <c r="E5">
         <v>0.1536231884057971</v>
       </c>
       <c r="F5">
-        <v>0.2963517176334114</v>
+        <v>0.2464855444703933</v>
       </c>
     </row>
     <row r="6">
@@ -490,13 +490,13 @@
         <v>0.162534435261708</v>
       </c>
       <c r="D6">
-        <v>0.3413678704008125</v>
+        <v>0.6586321295991875</v>
       </c>
       <c r="E6">
         <v>0.136231884057971</v>
       </c>
       <c r="F6">
-        <v>0.2749401965074518</v>
+        <v>0.2308162071788124</v>
       </c>
     </row>
     <row r="7">
@@ -512,13 +512,13 @@
         <v>0.1294765840220386</v>
       </c>
       <c r="D7">
-        <v>0.3969510669197652</v>
+        <v>0.6030489330802348</v>
       </c>
       <c r="E7">
         <v>0.1217391304347826</v>
       </c>
       <c r="F7">
-        <v>0.2392163890125294</v>
+        <v>0.1891767758395015</v>
       </c>
     </row>
     <row r="8">
@@ -534,13 +534,13 @@
         <v>0.1267217630853995</v>
       </c>
       <c r="D8">
-        <v>0.4179922297291146</v>
+        <v>0.5820077702708855</v>
       </c>
       <c r="E8">
         <v>0.1043478260869565</v>
       </c>
       <c r="F8">
-        <v>0.2137936229783498</v>
+        <v>0.1654275678298851</v>
       </c>
     </row>
     <row r="9">
@@ -556,13 +556,13 @@
         <v>0.1377410468319559</v>
       </c>
       <c r="D9">
-        <v>0.3793026838723209</v>
+        <v>0.6206973161276791</v>
       </c>
       <c r="E9">
         <v>0.08695652173913043</v>
       </c>
       <c r="F9">
-        <v>0.2073734133804896</v>
+        <v>0.1670704176615157</v>
       </c>
     </row>
     <row r="10">
@@ -578,13 +578,13 @@
         <v>0.1432506887052342</v>
       </c>
       <c r="D10">
-        <v>0.4853855564503509</v>
+        <v>0.5146144435496491</v>
       </c>
       <c r="E10">
         <v>0.1681159420289855</v>
       </c>
       <c r="F10">
-        <v>0.2715571961120632</v>
+        <v>0.1962831823151112</v>
       </c>
     </row>
     <row r="11">
@@ -600,13 +600,13 @@
         <v>0.4683195592286502</v>
       </c>
       <c r="D11">
-        <v>0.6064504643270997</v>
+        <v>0.3935495356729003</v>
       </c>
       <c r="E11">
         <v>0.3594202898550725</v>
       </c>
       <c r="F11">
-        <v>0.7169118519202599</v>
+        <v>0.4583421231021689</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         <v>0.184573002754821</v>
       </c>
       <c r="D12">
-        <v>0.5246012134829864</v>
+        <v>0.4753987865170136</v>
       </c>
       <c r="E12">
         <v>0.136231884057971</v>
       </c>
       <c r="F12">
-        <v>0.2921733914642157</v>
+        <v>0.2030583488100345</v>
       </c>
     </row>
     <row r="13">
@@ -644,13 +644,13 @@
         <v>0.1570247933884298</v>
       </c>
       <c r="D13">
-        <v>0.3902173924653623</v>
+        <v>0.6097826075346378</v>
       </c>
       <c r="E13">
         <v>0.1159420289855072</v>
       </c>
       <c r="F13">
-        <v>0.2359309713753573</v>
+        <v>0.1878992525589068</v>
       </c>
     </row>
     <row r="14">
@@ -666,13 +666,13 @@
         <v>0.1046831955922865</v>
       </c>
       <c r="D14">
-        <v>0.4271014211628885</v>
+        <v>0.5728985788371115</v>
       </c>
       <c r="E14">
         <v>0.0782608695652174</v>
       </c>
       <c r="F14">
-        <v>0.186924694476428</v>
+        <v>0.1432934554778927</v>
       </c>
     </row>
     <row r="15">
@@ -688,13 +688,13 @@
         <v>0.1349862258953168</v>
       </c>
       <c r="D15">
-        <v>0.5155068259548337</v>
+        <v>0.4844931740451663</v>
       </c>
       <c r="E15">
         <v>0.1652173913043478</v>
       </c>
       <c r="F15">
-        <v>0.3023521873251626</v>
+        <v>0.2120554406513047</v>
       </c>
     </row>
     <row r="16">
@@ -710,13 +710,13 @@
         <v>0.09366391184573003</v>
       </c>
       <c r="D16">
-        <v>0.3994004766061097</v>
+        <v>0.6005995233938903</v>
       </c>
       <c r="E16">
         <v>0.08405797101449274</v>
       </c>
       <c r="F16">
-        <v>0.1780825305525654</v>
+        <v>0.1404715626180672</v>
       </c>
     </row>
     <row r="17">
@@ -732,13 +732,13 @@
         <v>0.253443526170799</v>
       </c>
       <c r="D17">
-        <v>0.5742133001448325</v>
+        <v>0.4257866998551675</v>
       </c>
       <c r="E17">
         <v>0.1217391304347826</v>
       </c>
       <c r="F17">
-        <v>0.3788736158857422</v>
+        <v>0.2504361783660735</v>
       </c>
     </row>
     <row r="18">
@@ -754,13 +754,13 @@
         <v>0.3911845730027549</v>
       </c>
       <c r="D18">
-        <v>0.3695160994780796</v>
+        <v>0.6304839005219204</v>
       </c>
       <c r="E18">
         <v>0.4260869565217391</v>
       </c>
       <c r="F18">
-        <v>0.6073862172576766</v>
+        <v>0.4944792660008111</v>
       </c>
     </row>
     <row r="19">
@@ -776,13 +776,13 @@
         <v>0.3553719008264463</v>
       </c>
       <c r="D19">
-        <v>0.3906125493348083</v>
+        <v>0.6093874506651917</v>
       </c>
       <c r="E19">
         <v>0.3565217391304348</v>
       </c>
       <c r="F19">
-        <v>0.571241771089569</v>
+        <v>0.4547574051321644</v>
       </c>
     </row>
     <row r="20">
@@ -798,13 +798,13 @@
         <v>0.2644628099173554</v>
       </c>
       <c r="D20">
-        <v>0.3377164149896195</v>
+        <v>0.6622835850103805</v>
       </c>
       <c r="E20">
         <v>0.1884057971014493</v>
       </c>
       <c r="F20">
-        <v>0.3914680053612128</v>
+        <v>0.3299834982148074</v>
       </c>
     </row>
     <row r="21">
@@ -820,13 +820,13 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="D21">
-        <v>0.3432063652297687</v>
+        <v>0.6567936347702312</v>
       </c>
       <c r="E21">
         <v>0.3159420289855072</v>
       </c>
       <c r="F21">
-        <v>0.4763680154564616</v>
+        <v>0.3991020776307616</v>
       </c>
     </row>
     <row r="22">
@@ -842,13 +842,13 @@
         <v>0.278236914600551</v>
       </c>
       <c r="D22">
-        <v>0.007575594089176642</v>
+        <v>0.9924244059108234</v>
       </c>
       <c r="E22">
         <v>0.7217391304347827</v>
       </c>
       <c r="F22">
-        <v>0.2279127318311978</v>
+        <v>0.5492395032907175</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         <v>0.1983471074380166</v>
       </c>
       <c r="D23">
-        <v>0.007116194571842852</v>
+        <v>0.9928838054281571</v>
       </c>
       <c r="E23">
         <v>0.4753623188405798</v>
       </c>
       <c r="F23">
-        <v>0.1701864296055135</v>
+        <v>0.4166396277652701</v>
       </c>
     </row>
     <row r="24">
@@ -886,13 +886,13 @@
         <v>0.1515151515151515</v>
       </c>
       <c r="D24">
-        <v>0.01769311018465394</v>
+        <v>0.9823068898153461</v>
       </c>
       <c r="E24">
         <v>0.3478260869565217</v>
       </c>
       <c r="F24">
-        <v>0.1659886186948339</v>
+        <v>0.3227468832565015</v>
       </c>
     </row>
     <row r="25">
@@ -908,13 +908,13 @@
         <v>0.209366391184573</v>
       </c>
       <c r="D25">
-        <v>0.020308455345098</v>
+        <v>0.979691544654902</v>
       </c>
       <c r="E25">
         <v>0.6173913043478261</v>
       </c>
       <c r="F25">
-        <v>0.2169046163460674</v>
+        <v>0.407187939462009</v>
       </c>
     </row>
     <row r="26">
@@ -930,13 +930,13 @@
         <v>0.04958677685950414</v>
       </c>
       <c r="D26">
-        <v>0.06609424146984261</v>
+        <v>0.9339057585301573</v>
       </c>
       <c r="E26">
         <v>0.2057971014492754</v>
       </c>
       <c r="F26">
-        <v>0.1370703491617693</v>
+        <v>0.1893003298910912</v>
       </c>
     </row>
     <row r="27">
@@ -952,13 +952,13 @@
         <v>0.115702479338843</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0.4405797101449275</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.2703522549302894</v>
       </c>
     </row>
     <row r="28">
@@ -974,13 +974,13 @@
         <v>0.2589531680440771</v>
       </c>
       <c r="D28">
-        <v>0.1738139025987963</v>
+        <v>0.8261860974012037</v>
       </c>
       <c r="E28">
         <v>0.3971014492753623</v>
       </c>
       <c r="F28">
-        <v>0.3820594715972068</v>
+        <v>0.4018392066952238</v>
       </c>
     </row>
     <row r="29">
@@ -996,13 +996,13 @@
         <v>0.05509641873278236</v>
       </c>
       <c r="D29">
-        <v>0.2485531800434573</v>
+        <v>0.7514468199565427</v>
       </c>
       <c r="E29">
         <v>0.1130434782608696</v>
       </c>
       <c r="F29">
-        <v>0.1158364536681484</v>
+        <v>0.1088022756623771</v>
       </c>
     </row>
     <row r="30">
@@ -1018,7 +1018,7 @@
         <v>0.002754820936639121</v>
       </c>
       <c r="D30">
-        <v>0.1312687040995705</v>
+        <v>0.8687312959004294</v>
       </c>
       <c r="E30">
         <v>0.2057971014492754</v>
@@ -1040,13 +1040,13 @@
         <v>0.06887052341597795</v>
       </c>
       <c r="D31">
-        <v>0.1068040733696503</v>
+        <v>0.8931959266303497</v>
       </c>
       <c r="E31">
         <v>0.2579710144927536</v>
       </c>
       <c r="F31">
-        <v>0.1024917079734831</v>
+        <v>0.1241513521699689</v>
       </c>
     </row>
     <row r="32">
@@ -1062,13 +1062,13 @@
         <v>0.07988980716253444</v>
       </c>
       <c r="D32">
-        <v>0.08489385145315338</v>
+        <v>0.9151061485468466</v>
       </c>
       <c r="E32">
         <v>0.4173913043478262</v>
       </c>
       <c r="F32">
-        <v>0.2108209499081356</v>
+        <v>0.2721044028322143</v>
       </c>
     </row>
     <row r="33">
@@ -1084,13 +1084,13 @@
         <v>0.08539944903581267</v>
       </c>
       <c r="D33">
-        <v>0.1093653585482888</v>
+        <v>0.8906346414517112</v>
       </c>
       <c r="E33">
         <v>0.2521739130434782</v>
       </c>
       <c r="F33">
-        <v>0.1656685712405039</v>
+        <v>0.1993508406651454</v>
       </c>
     </row>
     <row r="34">
@@ -1106,13 +1106,13 @@
         <v>0.0440771349862259</v>
       </c>
       <c r="D34">
-        <v>0.1215289091410839</v>
+        <v>0.8784710908589162</v>
       </c>
       <c r="E34">
         <v>0.2985507246376812</v>
       </c>
       <c r="F34">
-        <v>0.1234819492393297</v>
+        <v>0.1442242998109804</v>
       </c>
     </row>
     <row r="35">
@@ -1128,13 +1128,13 @@
         <v>0.08815426997245179</v>
       </c>
       <c r="D35">
-        <v>0.1074115361797159</v>
+        <v>0.8925884638202841</v>
       </c>
       <c r="E35">
         <v>0.2695652173913043</v>
       </c>
       <c r="F35">
-        <v>0.1560972435283434</v>
+        <v>0.1887853605071355</v>
       </c>
     </row>
     <row r="36">
@@ -1150,13 +1150,13 @@
         <v>0.1239669421487603</v>
       </c>
       <c r="D36">
-        <v>0.111630555625862</v>
+        <v>0.888369444374138</v>
       </c>
       <c r="E36">
         <v>0.3739130434782609</v>
       </c>
       <c r="F36">
-        <v>0.2398577588485665</v>
+        <v>0.2869653081346828</v>
       </c>
     </row>
     <row r="37">
@@ -1172,13 +1172,13 @@
         <v>0.09366391184573003</v>
       </c>
       <c r="D37">
-        <v>0.4872103084461199</v>
+        <v>0.5127896915538801</v>
       </c>
       <c r="E37">
         <v>0.1246376811594203</v>
       </c>
       <c r="F37">
-        <v>0.2153295198599293</v>
+        <v>0.1553575166408029</v>
       </c>
     </row>
     <row r="38">
@@ -1194,13 +1194,13 @@
         <v>0.1294765840220386</v>
       </c>
       <c r="D38">
-        <v>0.4350185837450936</v>
+        <v>0.5649814162549065</v>
       </c>
       <c r="E38">
         <v>0.1652173913043478</v>
       </c>
       <c r="F38">
-        <v>0.2387081330177702</v>
+        <v>0.1815188779847634</v>
       </c>
     </row>
     <row r="39">
@@ -1216,13 +1216,13 @@
         <v>0.08815426997245179</v>
       </c>
       <c r="D39">
-        <v>0.389217039503311</v>
+        <v>0.610782960496689</v>
       </c>
       <c r="E39">
         <v>0.1565217391304348</v>
       </c>
       <c r="F39">
-        <v>0.1671583865165698</v>
+        <v>0.133267708906264</v>
       </c>
     </row>
     <row r="40">
@@ -1238,13 +1238,13 @@
         <v>0.08264462809917354</v>
       </c>
       <c r="D40">
-        <v>0.4303029356227078</v>
+        <v>0.5696970643772923</v>
       </c>
       <c r="E40">
         <v>0.1014492753623188</v>
       </c>
       <c r="F40">
-        <v>0.1431224208373786</v>
+        <v>0.1093573772157529</v>
       </c>
     </row>
     <row r="41">
@@ -1260,13 +1260,13 @@
         <v>0.06611570247933884</v>
       </c>
       <c r="D41">
-        <v>0.528853091932649</v>
+        <v>0.471146908067351</v>
       </c>
       <c r="E41">
         <v>0.06666666666666667</v>
       </c>
       <c r="F41">
-        <v>0.1420064653432565</v>
+        <v>0.09827350281521476</v>
       </c>
     </row>
     <row r="42">
@@ -1282,13 +1282,13 @@
         <v>0.01652892561983471</v>
       </c>
       <c r="D42">
-        <v>0.3969534319717133</v>
+        <v>0.6030465680282866</v>
       </c>
       <c r="E42">
         <v>0.1942028985507246</v>
       </c>
       <c r="F42">
-        <v>0.1498227982925888</v>
+        <v>0.1184823666937595</v>
       </c>
     </row>
     <row r="43">
@@ -1304,13 +1304,13 @@
         <v>0.04132231404958677</v>
       </c>
       <c r="D43">
-        <v>0.395340022516991</v>
+        <v>0.604659977483009</v>
       </c>
       <c r="E43">
         <v>0.1101449275362319</v>
       </c>
       <c r="F43">
-        <v>0.1202757797314429</v>
+        <v>0.09527660760839783</v>
       </c>
     </row>
     <row r="44">
@@ -1326,13 +1326,13 @@
         <v>0.08539944903581267</v>
       </c>
       <c r="D44">
-        <v>0.3706219442059298</v>
+        <v>0.6293780557940702</v>
       </c>
       <c r="E44">
         <v>0.1942028985507246</v>
       </c>
       <c r="F44">
-        <v>0.1944536847025998</v>
+        <v>0.1581190832686976</v>
       </c>
     </row>
     <row r="45">
@@ -1348,13 +1348,13 @@
         <v>0.09090909090909093</v>
       </c>
       <c r="D45">
-        <v>0.4124385663057704</v>
+        <v>0.5875614336942296</v>
       </c>
       <c r="E45">
         <v>0.1594202898550725</v>
       </c>
       <c r="F45">
-        <v>0.1867605989720402</v>
+        <v>0.1453388620690663</v>
       </c>
     </row>
     <row r="46">
@@ -1370,13 +1370,13 @@
         <v>0.06336088154269974</v>
       </c>
       <c r="D46">
-        <v>0.3959873626551479</v>
+        <v>0.6040126373448521</v>
       </c>
       <c r="E46">
         <v>0.1188405797101449</v>
       </c>
       <c r="F46">
-        <v>0.1364630350844055</v>
+        <v>0.1080262238093486</v>
       </c>
     </row>
     <row r="47">
@@ -1392,13 +1392,13 @@
         <v>0.06336088154269974</v>
       </c>
       <c r="D47">
-        <v>0.3878775736963654</v>
+        <v>0.6121224263036347</v>
       </c>
       <c r="E47">
         <v>0.1304347826086956</v>
       </c>
       <c r="F47">
-        <v>0.1168471240432502</v>
+        <v>0.09328824584791635</v>
       </c>
     </row>
     <row r="48">
@@ -1414,13 +1414,13 @@
         <v>0.1900826446280992</v>
       </c>
       <c r="D48">
-        <v>0.4001814737160859</v>
+        <v>0.5998185262839142</v>
       </c>
       <c r="E48">
         <v>0.2173913043478261</v>
       </c>
       <c r="F48">
-        <v>0.3575718621788679</v>
+        <v>0.281823402822844</v>
       </c>
     </row>
     <row r="49">
@@ -1436,13 +1436,13 @@
         <v>0.1046831955922865</v>
       </c>
       <c r="D49">
-        <v>0.3392251342618864</v>
+        <v>0.6607748657381136</v>
       </c>
       <c r="E49">
         <v>0.1623188405797102</v>
       </c>
       <c r="F49">
-        <v>0.227560396057985</v>
+        <v>0.1914965914339047</v>
       </c>
     </row>
     <row r="50">
@@ -1458,13 +1458,13 @@
         <v>0.2644628099173554</v>
       </c>
       <c r="D50">
-        <v>0.4240926255619822</v>
+        <v>0.5759073744380178</v>
       </c>
       <c r="E50">
         <v>0.3739130434782609</v>
       </c>
       <c r="F50">
-        <v>0.4298547176545711</v>
+        <v>0.3305351659889567</v>
       </c>
     </row>
     <row r="51">
@@ -1480,13 +1480,13 @@
         <v>0.1487603305785124</v>
       </c>
       <c r="D51">
-        <v>0.5210097889099399</v>
+        <v>0.4789902110900601</v>
       </c>
       <c r="E51">
         <v>0.2492753623188406</v>
       </c>
       <c r="F51">
-        <v>0.3371461899835549</v>
+        <v>0.2351589102856171</v>
       </c>
     </row>
     <row r="52">
@@ -1502,13 +1502,13 @@
         <v>0.1570247933884298</v>
       </c>
       <c r="D52">
-        <v>0.4870292973463095</v>
+        <v>0.5129707026536905</v>
       </c>
       <c r="E52">
         <v>0.2405797101449275</v>
       </c>
       <c r="F52">
-        <v>0.2992964717388378</v>
+        <v>0.2159777238954258</v>
       </c>
     </row>
     <row r="53">
@@ -1524,13 +1524,13 @@
         <v>0.09917355371900828</v>
       </c>
       <c r="D53">
-        <v>0.3861006959911518</v>
+        <v>0.6138993040088483</v>
       </c>
       <c r="E53">
         <v>0.1681159420289855</v>
       </c>
       <c r="F53">
-        <v>0.2220983752095834</v>
+        <v>0.1776509419862951</v>
       </c>
     </row>
     <row r="54">
@@ -1546,13 +1546,13 @@
         <v>0.1046831955922865</v>
       </c>
       <c r="D54">
-        <v>0.3670136921503738</v>
+        <v>0.6329863078496263</v>
       </c>
       <c r="E54">
         <v>0.2405797101449275</v>
       </c>
       <c r="F54">
-        <v>0.1914609738817513</v>
+        <v>0.1562900283843623</v>
       </c>
     </row>
     <row r="55">
@@ -1568,13 +1568,13 @@
         <v>0.1735537190082645</v>
       </c>
       <c r="D55">
-        <v>0.3091531389671758</v>
+        <v>0.6908468610328242</v>
       </c>
       <c r="E55">
         <v>0.1855072463768116</v>
       </c>
       <c r="F55">
-        <v>0.2945226209514574</v>
+        <v>0.2565037287524188</v>
       </c>
     </row>
     <row r="56">
@@ -1590,13 +1590,13 @@
         <v>0.1570247933884298</v>
       </c>
       <c r="D56">
-        <v>0.5000078382790886</v>
+        <v>0.4999921617209114</v>
       </c>
       <c r="E56">
         <v>0.2202898550724638</v>
       </c>
       <c r="F56">
-        <v>0.2896677177983517</v>
+        <v>0.2063334727106893</v>
       </c>
     </row>
     <row r="57">
@@ -1612,13 +1612,13 @@
         <v>0.1432506887052342</v>
       </c>
       <c r="D57">
-        <v>0.3936886657153447</v>
+        <v>0.6063113342846553</v>
       </c>
       <c r="E57">
         <v>0.2</v>
       </c>
       <c r="F57">
-        <v>0.2504657933094273</v>
+        <v>0.198749987304317</v>
       </c>
     </row>
     <row r="58">
@@ -1634,13 +1634,13 @@
         <v>0.09090909090909093</v>
       </c>
       <c r="D58">
-        <v>0.3504979359279418</v>
+        <v>0.6495020640720581</v>
       </c>
       <c r="E58">
         <v>0.1681159420289855</v>
       </c>
       <c r="F58">
-        <v>0.1934947787541144</v>
+        <v>0.160811096185326</v>
       </c>
     </row>
     <row r="59">
@@ -1656,13 +1656,13 @@
         <v>0.1074380165289256</v>
       </c>
       <c r="D59">
-        <v>0.351682539371529</v>
+        <v>0.648317460628471</v>
       </c>
       <c r="E59">
         <v>0.2231884057971014</v>
       </c>
       <c r="F59">
-        <v>0.2167399334629142</v>
+        <v>0.1798958553689396</v>
       </c>
     </row>
     <row r="60">
@@ -1678,13 +1678,13 @@
         <v>0.1652892561983471</v>
       </c>
       <c r="D60">
-        <v>0.4227598899810801</v>
+        <v>0.5772401100189199</v>
       </c>
       <c r="E60">
         <v>0.2927536231884059</v>
       </c>
       <c r="F60">
-        <v>0.3419993910237772</v>
+        <v>0.263338288099006</v>
       </c>
     </row>
     <row r="61">
@@ -1700,13 +1700,13 @@
         <v>0.1460055096418733</v>
       </c>
       <c r="D61">
-        <v>0.4314871737492152</v>
+        <v>0.5685128262507848</v>
       </c>
       <c r="E61">
         <v>0.2</v>
       </c>
       <c r="F61">
-        <v>0.2766973386652629</v>
+        <v>0.21116457871863</v>
       </c>
     </row>
     <row r="62">
@@ -1722,13 +1722,13 @@
         <v>0.140495867768595</v>
       </c>
       <c r="D62">
-        <v>0.3694036480230609</v>
+        <v>0.6305963519769391</v>
       </c>
       <c r="E62">
         <v>0.2231884057971014</v>
       </c>
       <c r="F62">
-        <v>0.2572338584070057</v>
+        <v>0.2094419605799585</v>
       </c>
     </row>
     <row r="63">
@@ -1744,13 +1744,13 @@
         <v>0.1184573002754821</v>
       </c>
       <c r="D63">
-        <v>0.377106557491433</v>
+        <v>0.622893442508567</v>
       </c>
       <c r="E63">
         <v>0.1942028985507246</v>
       </c>
       <c r="F63">
-        <v>0.2049878494865535</v>
+        <v>0.1655345040692638</v>
       </c>
     </row>
     <row r="64">
@@ -1766,13 +1766,13 @@
         <v>0.1707988980716254</v>
       </c>
       <c r="D64">
-        <v>0.3669051169040016</v>
+        <v>0.6330948830959984</v>
       </c>
       <c r="E64">
         <v>0.2521739130434782</v>
       </c>
       <c r="F64">
-        <v>0.3015685706548765</v>
+        <v>0.2461998763081718</v>
       </c>
     </row>
     <row r="65">
@@ -1788,13 +1788,13 @@
         <v>0.1239669421487603</v>
       </c>
       <c r="D65">
-        <v>0.3698006959067477</v>
+        <v>0.6301993040932523</v>
       </c>
       <c r="E65">
         <v>0.2318840579710145</v>
       </c>
       <c r="F65">
-        <v>0.2229933061925181</v>
+        <v>0.1814856827074335</v>
       </c>
     </row>
     <row r="66">
@@ -1810,13 +1810,13 @@
         <v>0.07713498622589533</v>
       </c>
       <c r="D66">
-        <v>0.3407985634484244</v>
+        <v>0.6592014365515756</v>
       </c>
       <c r="E66">
         <v>0.1942028985507246</v>
       </c>
       <c r="F66">
-        <v>0.2119674367652827</v>
+        <v>0.1780624069479178</v>
       </c>
     </row>
     <row r="67">
@@ -1832,13 +1832,13 @@
         <v>0.1515151515151515</v>
       </c>
       <c r="D67">
-        <v>0.4747737795912298</v>
+        <v>0.5252262204087702</v>
       </c>
       <c r="E67">
         <v>0.1884057971014493</v>
       </c>
       <c r="F67">
-        <v>0.2941581374025338</v>
+        <v>0.2148912733069621</v>
       </c>
     </row>
     <row r="68">
@@ -1854,13 +1854,13 @@
         <v>0.1074380165289256</v>
       </c>
       <c r="D68">
-        <v>0.3559374388237762</v>
+        <v>0.6440625611762238</v>
       </c>
       <c r="E68">
         <v>0.2202898550724638</v>
       </c>
       <c r="F68">
-        <v>0.250204281403593</v>
+        <v>0.2067075439924598</v>
       </c>
     </row>
     <row r="69">
@@ -1876,13 +1876,13 @@
         <v>0.1074380165289256</v>
       </c>
       <c r="D69">
-        <v>0.3172824916546623</v>
+        <v>0.6827175083453377</v>
       </c>
       <c r="E69">
         <v>0.1246376811594203</v>
       </c>
       <c r="F69">
-        <v>0.1773042161518011</v>
+        <v>0.1529645488952182</v>
       </c>
     </row>
     <row r="70">
@@ -1898,13 +1898,13 @@
         <v>0.07162534435261708</v>
       </c>
       <c r="D70">
-        <v>0.2904649560278265</v>
+        <v>0.7095350439721735</v>
       </c>
       <c r="E70">
         <v>0.1942028985507246</v>
       </c>
       <c r="F70">
-        <v>0.2113973201132223</v>
+        <v>0.1882532568092586</v>
       </c>
     </row>
     <row r="71">
@@ -1920,13 +1920,13 @@
         <v>0.1322314049586777</v>
       </c>
       <c r="D71">
-        <v>0.3342684530872112</v>
+        <v>0.6657315469127888</v>
       </c>
       <c r="E71">
         <v>0.1942028985507246</v>
       </c>
       <c r="F71">
-        <v>0.2891306545443463</v>
+        <v>0.2446628722725482</v>
       </c>
     </row>
     <row r="72">
@@ -1942,13 +1942,13 @@
         <v>0.162534435261708</v>
       </c>
       <c r="D72">
-        <v>0.3230804199406122</v>
+        <v>0.6769195800593878</v>
       </c>
       <c r="E72">
         <v>0.2376811594202898</v>
       </c>
       <c r="F72">
-        <v>0.2954613807260532</v>
+        <v>0.2532096929065829</v>
       </c>
     </row>
     <row r="73">
@@ -1964,13 +1964,13 @@
         <v>0.1212121212121212</v>
       </c>
       <c r="D73">
-        <v>0.3629673587623601</v>
+        <v>0.6370326412376399</v>
       </c>
       <c r="E73">
         <v>0.2260869565217391</v>
       </c>
       <c r="F73">
-        <v>0.2522536709936131</v>
+        <v>0.2068159446179836</v>
       </c>
     </row>
     <row r="74">
@@ -1986,13 +1986,13 @@
         <v>0.1267217630853995</v>
       </c>
       <c r="D74">
-        <v>0.3047603905139403</v>
+        <v>0.6952396094860597</v>
       </c>
       <c r="E74">
         <v>0.2347826086956522</v>
       </c>
       <c r="F74">
-        <v>0.2419568683002465</v>
+        <v>0.2118141382555311</v>
       </c>
     </row>
     <row r="75">
@@ -2008,13 +2008,13 @@
         <v>0.1928374655647383</v>
       </c>
       <c r="D75">
-        <v>0.6887019372665578</v>
+        <v>0.3112980627334422</v>
       </c>
       <c r="E75">
         <v>0.1043478260869565</v>
       </c>
       <c r="F75">
-        <v>0.3446091035838439</v>
+        <v>0.2012732311075208</v>
       </c>
     </row>
     <row r="76">
@@ -2030,13 +2030,13 @@
         <v>0.1487603305785124</v>
       </c>
       <c r="D76">
-        <v>0.4931094471383593</v>
+        <v>0.5068905528616408</v>
       </c>
       <c r="E76">
         <v>0.2695652173913043</v>
       </c>
       <c r="F76">
-        <v>0.359340593649967</v>
+        <v>0.2577341659313522</v>
       </c>
     </row>
     <row r="77">
@@ -2052,13 +2052,13 @@
         <v>0.1763085399449036</v>
       </c>
       <c r="D77">
-        <v>0.5219107314314907</v>
+        <v>0.4780892685685093</v>
       </c>
       <c r="E77">
         <v>0.1739130434782608</v>
       </c>
       <c r="F77">
-        <v>0.3546527777273589</v>
+        <v>0.2471465497569807</v>
       </c>
     </row>
     <row r="78">
@@ -2074,13 +2074,13 @@
         <v>0.1707988980716254</v>
       </c>
       <c r="D78">
-        <v>0.5287233780273869</v>
+        <v>0.4712766219726131</v>
       </c>
       <c r="E78">
         <v>0.1855072463768116</v>
       </c>
       <c r="F78">
-        <v>0.366397286715349</v>
+        <v>0.253592899222376</v>
       </c>
     </row>
     <row r="79">
@@ -2096,13 +2096,13 @@
         <v>0.1900826446280992</v>
       </c>
       <c r="D79">
-        <v>0.4781912978462925</v>
+        <v>0.5218087021537074</v>
       </c>
       <c r="E79">
         <v>0.1739130434782608</v>
       </c>
       <c r="F79">
-        <v>0.3397831009604457</v>
+        <v>0.2473729350107279</v>
       </c>
     </row>
     <row r="80">
@@ -2118,13 +2118,13 @@
         <v>0.2121212121212122</v>
       </c>
       <c r="D80">
-        <v>0.140542827154967</v>
+        <v>0.859457172845033</v>
       </c>
       <c r="E80">
         <v>0.2434782608695652</v>
       </c>
       <c r="F80">
-        <v>0.3155883133334149</v>
+        <v>0.3535068186589364</v>
       </c>
     </row>
     <row r="81">
@@ -2140,13 +2140,13 @@
         <v>0.3388429752066116</v>
       </c>
       <c r="D81">
-        <v>0.1303372115078377</v>
+        <v>0.8696627884921624</v>
       </c>
       <c r="E81">
         <v>0.2811594202898551</v>
       </c>
       <c r="F81">
-        <v>0.4083295148217131</v>
+        <v>0.4674706859184175</v>
       </c>
     </row>
     <row r="82">
@@ -2162,13 +2162,13 @@
         <v>0.3856749311294767</v>
       </c>
       <c r="D82">
-        <v>0.04311295681213203</v>
+        <v>0.956887043187868</v>
       </c>
       <c r="E82">
         <v>0.5971014492753624</v>
       </c>
       <c r="F82">
-        <v>0.3922437235652899</v>
+        <v>0.6064461081962741</v>
       </c>
     </row>
     <row r="83">
@@ -2184,13 +2184,13 @@
         <v>0.556473829201102</v>
       </c>
       <c r="D83">
-        <v>0.06717755424916647</v>
+        <v>0.9328224457508335</v>
       </c>
       <c r="E83">
         <v>0.5304347826086957</v>
       </c>
       <c r="F83">
-        <v>0.420055693393062</v>
+        <v>0.5775951919534423</v>
       </c>
     </row>
     <row r="84">
@@ -2206,13 +2206,13 @@
         <v>0.4352617079889807</v>
       </c>
       <c r="D84">
-        <v>0.04738427188658326</v>
+        <v>0.9526157281134168</v>
       </c>
       <c r="E84">
         <v>0.4376811594202899</v>
       </c>
       <c r="F84">
-        <v>0.393123660650964</v>
+        <v>0.5929568101053816</v>
       </c>
     </row>
     <row r="85">
@@ -2228,13 +2228,13 @@
         <v>0.465564738292011</v>
       </c>
       <c r="D85">
-        <v>0.05628462467287467</v>
+        <v>0.9437153753271253</v>
       </c>
       <c r="E85">
         <v>0.6289855072463768</v>
       </c>
       <c r="F85">
-        <v>0.4724916758213971</v>
+        <v>0.6810515252299781</v>
       </c>
     </row>
     <row r="86">
@@ -2250,13 +2250,13 @@
         <v>0.5261707988980716</v>
       </c>
       <c r="D86">
-        <v>0.06747501374402261</v>
+        <v>0.9325249862559774</v>
       </c>
       <c r="E86">
         <v>0.5014492753623189</v>
       </c>
       <c r="F86">
-        <v>0.5033415798886195</v>
+        <v>0.6912978018402767</v>
       </c>
     </row>
     <row r="87">
@@ -2272,13 +2272,13 @@
         <v>0.6584022038567493</v>
       </c>
       <c r="D87">
-        <v>0.08607246427731531</v>
+        <v>0.9139275357226847</v>
       </c>
       <c r="E87">
         <v>0.7101449275362319</v>
       </c>
       <c r="F87">
-        <v>0.6472642849977628</v>
+        <v>0.8322743676080633</v>
       </c>
     </row>
     <row r="88">
@@ -2294,13 +2294,13 @@
         <v>0.4793388429752066</v>
       </c>
       <c r="D88">
-        <v>0.05061047106540717</v>
+        <v>0.9493895289345928</v>
       </c>
       <c r="E88">
         <v>0.6260869565217392</v>
       </c>
       <c r="F88">
-        <v>0.4807939132750651</v>
+        <v>0.7127430145163233</v>
       </c>
     </row>
     <row r="89">
@@ -2316,13 +2316,13 @@
         <v>0.5674931129476584</v>
       </c>
       <c r="D89">
-        <v>0.06340193004393883</v>
+        <v>0.9365980699560612</v>
       </c>
       <c r="E89">
         <v>0.6115942028985508</v>
       </c>
       <c r="F89">
-        <v>0.5173915336832925</v>
+        <v>0.7225285408024092</v>
       </c>
     </row>
     <row r="90">
@@ -2338,13 +2338,13 @@
         <v>0.4159779614325069</v>
       </c>
       <c r="D90">
-        <v>0.05464694530555743</v>
+        <v>0.9453530546944425</v>
       </c>
       <c r="E90">
         <v>0.7971014492753623</v>
       </c>
       <c r="F90">
-        <v>0.5115716801940251</v>
+        <v>0.7431671836292362</v>
       </c>
     </row>
     <row r="91">
@@ -2360,13 +2360,13 @@
         <v>0.4958677685950413</v>
       </c>
       <c r="D91">
-        <v>0.04585101870480332</v>
+        <v>0.9541489812951967</v>
       </c>
       <c r="E91">
         <v>0.6463768115942029</v>
       </c>
       <c r="F91">
-        <v>0.4313249867836822</v>
+        <v>0.6562123690965106</v>
       </c>
     </row>
     <row r="92">
@@ -2382,13 +2382,13 @@
         <v>0.4132231404958678</v>
       </c>
       <c r="D92">
-        <v>0.09420939399903257</v>
+        <v>0.9057906060009674</v>
       </c>
       <c r="E92">
         <v>0.8260869565217392</v>
       </c>
       <c r="F92">
-        <v>0.5262145097200168</v>
+        <v>0.6600384164585795</v>
       </c>
     </row>
     <row r="93">
@@ -2404,13 +2404,13 @@
         <v>0.4325068870523416</v>
       </c>
       <c r="D93">
-        <v>0.05913380806555698</v>
+        <v>0.940866191934443</v>
       </c>
       <c r="E93">
         <v>0.4811594202898551</v>
       </c>
       <c r="F93">
-        <v>0.4100335973444328</v>
+        <v>0.5833315167615982</v>
       </c>
     </row>
     <row r="94">
@@ -2426,13 +2426,13 @@
         <v>0.4628099173553719</v>
       </c>
       <c r="D94">
-        <v>0.2196440424070784</v>
+        <v>0.7803559575929216</v>
       </c>
       <c r="E94">
         <v>0.2898550724637681</v>
       </c>
       <c r="F94">
-        <v>0.5116599780002525</v>
+        <v>0.5003774994869034</v>
       </c>
     </row>
     <row r="95">
@@ -2448,13 +2448,13 @@
         <v>0.5316804407713498</v>
       </c>
       <c r="D95">
-        <v>0.227786083447123</v>
+        <v>0.772213916552877</v>
       </c>
       <c r="E95">
         <v>0.3855072463768116</v>
       </c>
       <c r="F95">
-        <v>0.612976948474949</v>
+        <v>0.5924746131667908</v>
       </c>
     </row>
     <row r="96">
@@ -2470,13 +2470,13 @@
         <v>0.4159779614325069</v>
       </c>
       <c r="D96">
-        <v>0.2314172496317693</v>
+        <v>0.7685827503682308</v>
       </c>
       <c r="E96">
         <v>0.2811594202898551</v>
       </c>
       <c r="F96">
-        <v>0.4737321611070363</v>
+        <v>0.4555432227835158</v>
       </c>
     </row>
     <row r="97">
@@ -2492,13 +2492,13 @@
         <v>0.4214876033057851</v>
       </c>
       <c r="D97">
-        <v>0.2893682302234683</v>
+        <v>0.7106317697765316</v>
       </c>
       <c r="E97">
         <v>0.2289855072463768</v>
       </c>
       <c r="F97">
-        <v>0.4698204633004171</v>
+        <v>0.4189414829782771</v>
       </c>
     </row>
     <row r="98">
@@ -2514,13 +2514,13 @@
         <v>0.4049586776859505</v>
       </c>
       <c r="D98">
-        <v>0.2690716149358976</v>
+        <v>0.7309283850641024</v>
       </c>
       <c r="E98">
         <v>0.2956521739130434</v>
       </c>
       <c r="F98">
-        <v>0.5264432780180162</v>
+        <v>0.4814224230517047</v>
       </c>
     </row>
     <row r="99">
@@ -2536,13 +2536,13 @@
         <v>0.3911845730027549</v>
       </c>
       <c r="D99">
-        <v>0.2342907852732468</v>
+        <v>0.7657092147267532</v>
       </c>
       <c r="E99">
         <v>0.3304347826086956</v>
       </c>
       <c r="F99">
-        <v>0.5102835354844153</v>
+        <v>0.4887218052720542</v>
       </c>
     </row>
     <row r="100">
@@ -2558,13 +2558,13 @@
         <v>0.4049586776859505</v>
       </c>
       <c r="D100">
-        <v>0.2397485554016954</v>
+        <v>0.7602514445983046</v>
       </c>
       <c r="E100">
         <v>0.2492753623188406</v>
       </c>
       <c r="F100">
-        <v>0.4694150317303595</v>
+        <v>0.446200754628097</v>
       </c>
     </row>
     <row r="101">
@@ -2580,13 +2580,13 @@
         <v>0.4573002754820936</v>
       </c>
       <c r="D101">
-        <v>0.2671485234325975</v>
+        <v>0.7328514765674026</v>
       </c>
       <c r="E101">
         <v>0.2231884057971014</v>
       </c>
       <c r="F101">
-        <v>0.5064763778152732</v>
+        <v>0.4642992540766019</v>
       </c>
     </row>
     <row r="102">
@@ -2602,13 +2602,13 @@
         <v>0.4435261707988981</v>
       </c>
       <c r="D102">
-        <v>0.2243644667303553</v>
+        <v>0.7756355332696446</v>
       </c>
       <c r="E102">
         <v>0.3014492753623188</v>
       </c>
       <c r="F102">
-        <v>0.5139579563919474</v>
+        <v>0.4992022021484445</v>
       </c>
     </row>
     <row r="103">
@@ -2624,13 +2624,13 @@
         <v>0.5702479338842975</v>
       </c>
       <c r="D103">
-        <v>0.208547001738805</v>
+        <v>0.791452998261195</v>
       </c>
       <c r="E103">
         <v>0.3478260869565217</v>
       </c>
       <c r="F103">
-        <v>0.609838894109437</v>
+        <v>0.6063081525329554</v>
       </c>
     </row>
     <row r="104">
@@ -2646,13 +2646,13 @@
         <v>0.7300275482093664</v>
       </c>
       <c r="D104">
-        <v>0.1921561904617829</v>
+        <v>0.8078438095382171</v>
       </c>
       <c r="E104">
         <v>0.3594202898550725</v>
       </c>
       <c r="F104">
-        <v>0.692639366978766</v>
+        <v>0.706477639950583</v>
       </c>
     </row>
     <row r="105">
@@ -2668,13 +2668,13 @@
         <v>0.3774104683195593</v>
       </c>
       <c r="D105">
-        <v>0.2487815885099106</v>
+        <v>0.7512184114900894</v>
       </c>
       <c r="E105">
         <v>0.3333333333333333</v>
       </c>
       <c r="F105">
-        <v>0.5128192659802114</v>
+        <v>0.4815310800379525</v>
       </c>
     </row>
     <row r="106">
@@ -2690,13 +2690,13 @@
         <v>0.5537190082644627</v>
       </c>
       <c r="D106">
-        <v>0.2109993313934357</v>
+        <v>0.7890006686065643</v>
       </c>
       <c r="E106">
         <v>0.3362318840579711</v>
       </c>
       <c r="F106">
-        <v>0.5967140995769133</v>
+        <v>0.5910692511843537</v>
       </c>
     </row>
     <row r="107">
@@ -2712,13 +2712,13 @@
         <v>0.4214876033057851</v>
       </c>
       <c r="D107">
-        <v>0.2337895424431991</v>
+        <v>0.7662104575568008</v>
       </c>
       <c r="E107">
         <v>0.391304347826087</v>
       </c>
       <c r="F107">
-        <v>0.557235731132749</v>
+        <v>0.5340632559913054</v>
       </c>
     </row>
     <row r="108">
@@ -2734,13 +2734,13 @@
         <v>0.7355371900826446</v>
       </c>
       <c r="D108">
-        <v>0.1957901813448939</v>
+        <v>0.8042098186551061</v>
       </c>
       <c r="E108">
         <v>0.4115942028985507</v>
       </c>
       <c r="F108">
-        <v>0.7302480203208701</v>
+        <v>0.7405220556121997</v>
       </c>
     </row>
     <row r="109">
@@ -2756,13 +2756,13 @@
         <v>0.5371900826446281</v>
       </c>
       <c r="D109">
-        <v>0.1831873328430823</v>
+        <v>0.8168126671569178</v>
       </c>
       <c r="E109">
         <v>0.3739130434782609</v>
       </c>
       <c r="F109">
-        <v>0.5870329227780777</v>
+        <v>0.6076341989576655</v>
       </c>
     </row>
     <row r="110">
@@ -2778,7 +2778,7 @@
         <v>0.9614325068870524</v>
       </c>
       <c r="D110">
-        <v>0.2047394062672755</v>
+        <v>0.7952605937327245</v>
       </c>
       <c r="E110">
         <v>0.6173913043478261</v>
@@ -2800,13 +2800,13 @@
         <v>0.9256198347107439</v>
       </c>
       <c r="D111">
-        <v>0.1925947295002932</v>
+        <v>0.8074052704997068</v>
       </c>
       <c r="E111">
         <v>0.6318840579710145</v>
       </c>
       <c r="F111">
-        <v>0.9503020206143585</v>
+        <v>0.9686044105429931</v>
       </c>
     </row>
     <row r="112">
@@ -2822,13 +2822,13 @@
         <v>0.6060606060606061</v>
       </c>
       <c r="D112">
-        <v>0.1941769451621975</v>
+        <v>0.8058230548378025</v>
       </c>
       <c r="E112">
         <v>0.3855072463768116</v>
       </c>
       <c r="F112">
-        <v>0.6601770051596619</v>
+        <v>0.6711875519688804</v>
       </c>
     </row>
     <row r="113">
@@ -2844,13 +2844,13 @@
         <v>0.3388429752066116</v>
       </c>
       <c r="D113">
-        <v>0.377864524404034</v>
+        <v>0.622135475595966</v>
       </c>
       <c r="E113">
         <v>0.2173913043478261</v>
       </c>
       <c r="F113">
-        <v>0.4485076949237438</v>
+        <v>0.3618929345213165</v>
       </c>
     </row>
     <row r="114">
@@ -2866,13 +2866,13 @@
         <v>0.325068870523416</v>
       </c>
       <c r="D114">
-        <v>0.4725966748000699</v>
+        <v>0.5274033251999302</v>
       </c>
       <c r="E114">
         <v>0.1594202898550725</v>
       </c>
       <c r="F114">
-        <v>0.4527397390047592</v>
+        <v>0.3314626977792822</v>
       </c>
     </row>
     <row r="115">
@@ -2888,13 +2888,13 @@
         <v>0.3691460055096419</v>
       </c>
       <c r="D115">
-        <v>0.3851398073274916</v>
+        <v>0.6148601926725084</v>
       </c>
       <c r="E115">
         <v>0.2579710144927536</v>
       </c>
       <c r="F115">
-        <v>0.4986973672609102</v>
+        <v>0.3993002311448927</v>
       </c>
     </row>
     <row r="116">
@@ -2910,13 +2910,13 @@
         <v>0.3608815426997246</v>
       </c>
       <c r="D116">
-        <v>0.3637607548818019</v>
+        <v>0.6362392451181981</v>
       </c>
       <c r="E116">
         <v>0.3072463768115942</v>
       </c>
       <c r="F116">
-        <v>0.494529915600973</v>
+        <v>0.4051041717361997</v>
       </c>
     </row>
     <row r="117">
@@ -2932,13 +2932,13 @@
         <v>0.3484848484848485</v>
       </c>
       <c r="D117">
-        <v>0.326113775120068</v>
+        <v>0.673886224879932</v>
       </c>
       <c r="E117">
         <v>0.2353623188405797</v>
       </c>
       <c r="F117">
-        <v>0.4537376567413355</v>
+        <v>0.387509341889922</v>
       </c>
     </row>
     <row r="118">
@@ -2954,13 +2954,13 @@
         <v>0.303030303030303</v>
       </c>
       <c r="D118">
-        <v>0.5510140855915083</v>
+        <v>0.4489859144084917</v>
       </c>
       <c r="E118">
         <v>0.2695652173913043</v>
       </c>
       <c r="F118">
-        <v>0.527138043331672</v>
+        <v>0.356750719941666</v>
       </c>
     </row>
     <row r="119">
@@ -2976,13 +2976,13 @@
         <v>0.2892561983471075</v>
       </c>
       <c r="D119">
-        <v>0.3455618173695845</v>
+        <v>0.6544381826304155</v>
       </c>
       <c r="E119">
         <v>0.2608695652173913</v>
       </c>
       <c r="F119">
-        <v>0.4173074720018947</v>
+        <v>0.3487103800446144</v>
       </c>
     </row>
     <row r="120">
@@ -2998,13 +2998,13 @@
         <v>0.3278236914600551</v>
       </c>
       <c r="D120">
-        <v>0.3417800679015546</v>
+        <v>0.6582199320984454</v>
       </c>
       <c r="E120">
         <v>0.2840579710144928</v>
       </c>
       <c r="F120">
-        <v>0.4771212093721552</v>
+        <v>0.400366554995323</v>
       </c>
     </row>
     <row r="121">
@@ -3020,13 +3020,13 @@
         <v>0.2561983471074381</v>
       </c>
       <c r="D121">
-        <v>0.3249517885095636</v>
+        <v>0.6750482114904364</v>
       </c>
       <c r="E121">
         <v>0.1652173913043478</v>
       </c>
       <c r="F121">
-        <v>0.3556402897746574</v>
+        <v>0.3041325577530736</v>
       </c>
     </row>
     <row r="122">
@@ -3042,13 +3042,13 @@
         <v>0.2727272727272728</v>
       </c>
       <c r="D122">
-        <v>0.3081446900353583</v>
+        <v>0.6918553099646416</v>
       </c>
       <c r="E122">
         <v>0.2985507246376812</v>
       </c>
       <c r="F122">
-        <v>0.4183799591171452</v>
+        <v>0.3648035154602774</v>
       </c>
     </row>
     <row r="123">
@@ -3064,13 +3064,13 @@
         <v>0.3498622589531681</v>
       </c>
       <c r="D123">
-        <v>0.369800081460941</v>
+        <v>0.630199918539059</v>
       </c>
       <c r="E123">
         <v>0.3739130434782609</v>
       </c>
       <c r="F123">
-        <v>0.5200471467877079</v>
+        <v>0.4232466673407025</v>
       </c>
     </row>
     <row r="124">
@@ -3086,13 +3086,13 @@
         <v>0.4077134986225895</v>
       </c>
       <c r="D124">
-        <v>0.3458255094447201</v>
+        <v>0.6541744905552799</v>
       </c>
       <c r="E124">
         <v>0.4579710144927536</v>
       </c>
       <c r="F124">
-        <v>0.6244777731776008</v>
+        <v>0.5216739183809395</v>
       </c>
     </row>
     <row r="125">
@@ -3108,13 +3108,13 @@
         <v>0.4132231404958678</v>
       </c>
       <c r="D125">
-        <v>0.3497962127327189</v>
+        <v>0.6502037872672811</v>
       </c>
       <c r="E125">
         <v>0.4579710144927536</v>
       </c>
       <c r="F125">
-        <v>0.6143283616639241</v>
+        <v>0.5109544170914313</v>
       </c>
     </row>
     <row r="126">
@@ -3130,13 +3130,13 @@
         <v>0.2617079889807163</v>
       </c>
       <c r="D126">
-        <v>0.3656641947041618</v>
+        <v>0.6343358052958381</v>
       </c>
       <c r="E126">
         <v>0.2289855072463768</v>
       </c>
       <c r="F126">
-        <v>0.4044570217930201</v>
+        <v>0.3306393747334974</v>
       </c>
     </row>
     <row r="127">
@@ -3152,13 +3152,13 @@
         <v>0.3856749311294767</v>
       </c>
       <c r="D127">
-        <v>0.3462977045440917</v>
+        <v>0.6537022954559083</v>
       </c>
       <c r="E127">
         <v>0.3826086956521739</v>
       </c>
       <c r="F127">
-        <v>0.5322162229372724</v>
+        <v>0.4443689465646435</v>
       </c>
     </row>
     <row r="128">
@@ -3174,13 +3174,13 @@
         <v>0.3966942148760331</v>
       </c>
       <c r="D128">
-        <v>0.341541691065095</v>
+        <v>0.658458308934905</v>
       </c>
       <c r="E128">
         <v>0.3420289855072464</v>
       </c>
       <c r="F128">
-        <v>0.5264323185823482</v>
+        <v>0.4418620235206215</v>
       </c>
     </row>
     <row r="129">
@@ -3196,13 +3196,13 @@
         <v>0.278236914600551</v>
       </c>
       <c r="D129">
-        <v>0.3338697285804865</v>
+        <v>0.6661302714195134</v>
       </c>
       <c r="E129">
         <v>0.1971014492753623</v>
       </c>
       <c r="F129">
-        <v>0.3912161505185353</v>
+        <v>0.3311961662669242</v>
       </c>
     </row>
     <row r="130">
@@ -3218,13 +3218,13 @@
         <v>0.2754820936639119</v>
       </c>
       <c r="D130">
-        <v>0.3324535593094115</v>
+        <v>0.6675464406905884</v>
       </c>
       <c r="E130">
         <v>0.2289855072463768</v>
       </c>
       <c r="F130">
-        <v>0.3875624781580661</v>
+        <v>0.3286263193822151</v>
       </c>
     </row>
     <row r="131">
@@ -3240,13 +3240,13 @@
         <v>0.3168044077134987</v>
       </c>
       <c r="D131">
-        <v>0.3343320575063883</v>
+        <v>0.6656679424936116</v>
       </c>
       <c r="E131">
         <v>0.2869565217391304</v>
       </c>
       <c r="F131">
-        <v>0.469537420783468</v>
+        <v>0.3972950091866244</v>
       </c>
     </row>
     <row r="132">
@@ -3262,13 +3262,13 @@
         <v>0.303030303030303</v>
       </c>
       <c r="D132">
-        <v>0.3173123398475399</v>
+        <v>0.6826876601524601</v>
       </c>
       <c r="E132">
         <v>0.2434782608695652</v>
       </c>
       <c r="F132">
-        <v>0.4206597551917812</v>
+        <v>0.3629006379801826</v>
       </c>
     </row>
     <row r="133">
@@ -3284,13 +3284,13 @@
         <v>0.3581267217630854</v>
       </c>
       <c r="D133">
-        <v>0.3304794928012407</v>
+        <v>0.6695205071987593</v>
       </c>
       <c r="E133">
         <v>0.3855072463768116</v>
       </c>
       <c r="F133">
-        <v>0.5220759141144551</v>
+        <v>0.443671460994129</v>
       </c>
     </row>
     <row r="134">
@@ -3306,13 +3306,13 @@
         <v>0.4049586776859505</v>
       </c>
       <c r="D134">
-        <v>0.3330088145316152</v>
+        <v>0.6669911854683848</v>
       </c>
       <c r="E134">
         <v>0.3565217391304348</v>
       </c>
       <c r="F134">
-        <v>0.5690319257357116</v>
+        <v>0.4821983486980413</v>
       </c>
     </row>
     <row r="135">
@@ -3328,13 +3328,13 @@
         <v>0.2920110192837466</v>
       </c>
       <c r="D135">
-        <v>0.3410326453765805</v>
+        <v>0.6589673546234195</v>
       </c>
       <c r="E135">
         <v>0.2492753623188406</v>
       </c>
       <c r="F135">
-        <v>0.4221482666120143</v>
+        <v>0.3545316329582601</v>
       </c>
     </row>
     <row r="136">
@@ -3350,13 +3350,13 @@
         <v>0.3884297520661157</v>
       </c>
       <c r="D136">
-        <v>0.3370522038701144</v>
+        <v>0.6629477961298855</v>
       </c>
       <c r="E136">
         <v>0.3536231884057971</v>
       </c>
       <c r="F136">
-        <v>0.5192413163243428</v>
+        <v>0.4380137826488348</v>
       </c>
     </row>
     <row r="137">
@@ -3372,13 +3372,13 @@
         <v>0.3057851239669422</v>
       </c>
       <c r="D137">
-        <v>0.3762407187519264</v>
+        <v>0.6237592812480736</v>
       </c>
       <c r="E137">
         <v>0.2608695652173913</v>
       </c>
       <c r="F137">
-        <v>0.4523971953994199</v>
+        <v>0.3656627358996137</v>
       </c>
     </row>
     <row r="138">
@@ -3394,13 +3394,13 @@
         <v>0.3223140495867769</v>
       </c>
       <c r="D138">
-        <v>0.4000549361706712</v>
+        <v>0.5999450638293288</v>
       </c>
       <c r="E138">
         <v>0.3826086956521739</v>
       </c>
       <c r="F138">
-        <v>0.5275578263310842</v>
+        <v>0.4158541377282359</v>
       </c>
     </row>
     <row r="139">
@@ -3416,13 +3416,13 @@
         <v>0.2479338842975207</v>
       </c>
       <c r="D139">
-        <v>0.322198633731879</v>
+        <v>0.677801366268121</v>
       </c>
       <c r="E139">
         <v>0.3078260869565217</v>
       </c>
       <c r="F139">
-        <v>0.4391119839236458</v>
+        <v>0.3766977014222099</v>
       </c>
     </row>
     <row r="140">
@@ -3438,13 +3438,13 @@
         <v>0.3388429752066116</v>
       </c>
       <c r="D140">
-        <v>0.04707490513082551</v>
+        <v>0.9529250948691745</v>
       </c>
       <c r="E140">
         <v>0.4782608695652174</v>
       </c>
       <c r="F140">
-        <v>0.3694589761981577</v>
+        <v>0.5582214804442406</v>
       </c>
     </row>
     <row r="141">
@@ -3460,13 +3460,13 @@
         <v>0.253443526170799</v>
       </c>
       <c r="D141">
-        <v>0.07896771495435409</v>
+        <v>0.9210322850456459</v>
       </c>
       <c r="E141">
         <v>0.3536231884057971</v>
       </c>
       <c r="F141">
-        <v>0.3049041977689348</v>
+        <v>0.4013679758964396</v>
       </c>
     </row>
     <row r="142">
@@ -3482,13 +3482,13 @@
         <v>0.1955922865013774</v>
       </c>
       <c r="D142">
-        <v>0.1160582120053272</v>
+        <v>0.8839417879946728</v>
       </c>
       <c r="E142">
         <v>0.2231884057971014</v>
       </c>
       <c r="F142">
-        <v>0.2358374849154692</v>
+        <v>0.279076184213454</v>
       </c>
     </row>
     <row r="143">
@@ -3504,13 +3504,13 @@
         <v>0.1267217630853995</v>
       </c>
       <c r="D143">
-        <v>0.06911672728983631</v>
+        <v>0.9308832727101637</v>
       </c>
       <c r="E143">
         <v>0.2173913043478261</v>
       </c>
       <c r="F143">
-        <v>0.196627057419785</v>
+        <v>0.268314590275195</v>
       </c>
     </row>
     <row r="144">
@@ -3526,13 +3526,13 @@
         <v>0.03581267217630854</v>
       </c>
       <c r="D144">
-        <v>0.09803304599640615</v>
+        <v>0.9019669540035938</v>
       </c>
       <c r="E144">
         <v>0.0898550724637681</v>
       </c>
       <c r="F144">
-        <v>0.08613089736443391</v>
+        <v>0.1068529455135904</v>
       </c>
     </row>
     <row r="145">
@@ -3548,13 +3548,13 @@
         <v>0.01928374655647382</v>
       </c>
       <c r="D145">
-        <v>0.09705792952076273</v>
+        <v>0.9029420704792372</v>
       </c>
       <c r="E145">
         <v>0.127536231884058</v>
       </c>
       <c r="F145">
-        <v>0.1010113145862901</v>
+        <v>0.1256609196402494</v>
       </c>
     </row>
     <row r="146">
@@ -3570,13 +3570,13 @@
         <v>0.01377410468319559</v>
       </c>
       <c r="D146">
-        <v>0.07426877468164347</v>
+        <v>0.9257312253183565</v>
       </c>
       <c r="E146">
         <v>0.191304347826087</v>
       </c>
       <c r="F146">
-        <v>0.07303387172550291</v>
+        <v>0.09775004860823674</v>
       </c>
     </row>
     <row r="147">
@@ -3592,13 +3592,13 @@
         <v>0.0440771349862259</v>
       </c>
       <c r="D147">
-        <v>0.08187903885383115</v>
+        <v>0.9181209611461688</v>
       </c>
       <c r="E147">
         <v>0.1130434782608696</v>
       </c>
       <c r="F147">
-        <v>0.1043616904203188</v>
+        <v>0.1360335058528023</v>
       </c>
     </row>
     <row r="148">
@@ -3614,13 +3614,13 @@
         <v>0.1322314049586777</v>
       </c>
       <c r="D148">
-        <v>0.07148496957350091</v>
+        <v>0.9285150304264991</v>
       </c>
       <c r="E148">
         <v>0.3623188405797101</v>
       </c>
       <c r="F148">
-        <v>0.2558057982838212</v>
+        <v>0.345921000851138</v>
       </c>
     </row>
     <row r="149">
@@ -3636,13 +3636,13 @@
         <v>0.2038567493112948</v>
       </c>
       <c r="D149">
-        <v>0.07970360083707569</v>
+        <v>0.9202963991629243</v>
       </c>
       <c r="E149">
         <v>0.510144927536232</v>
       </c>
       <c r="F149">
-        <v>0.3262359527024812</v>
+        <v>0.4283682358948877</v>
       </c>
     </row>
     <row r="150">
@@ -3658,13 +3658,13 @@
         <v>0.1790633608815427</v>
       </c>
       <c r="D150">
-        <v>0.06663351482738832</v>
+        <v>0.9333664851726117</v>
       </c>
       <c r="E150">
         <v>0.4695652173913043</v>
       </c>
       <c r="F150">
-        <v>0.3004170298901945</v>
+        <v>0.4139876754571797</v>
       </c>
     </row>
     <row r="151">
@@ -3680,13 +3680,13 @@
         <v>0.09641873278236913</v>
       </c>
       <c r="D151">
-        <v>0.07122483319864614</v>
+        <v>0.9287751668013539</v>
       </c>
       <c r="E151">
         <v>0.255072463768116</v>
       </c>
       <c r="F151">
-        <v>0.196040956339255</v>
+        <v>0.2653625275085784</v>
       </c>
     </row>
     <row r="152">
@@ -3702,13 +3702,13 @@
         <v>0.2176308539944904</v>
       </c>
       <c r="D152">
-        <v>0.3158835534261955</v>
+        <v>0.6841164465738045</v>
       </c>
       <c r="E152">
         <v>0.2115942028985507</v>
       </c>
       <c r="F152">
-        <v>0.3069911380869907</v>
+        <v>0.2652769936508481</v>
       </c>
     </row>
     <row r="153">
@@ -3724,13 +3724,13 @@
         <v>0.231404958677686</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153">
         <v>0.2173913043478261</v>
       </c>
       <c r="F153">
-        <v>0.4372923835439727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3746,13 +3746,13 @@
         <v>0.2369146005509642</v>
       </c>
       <c r="D154">
-        <v>0.8983704769816254</v>
+        <v>0.1016295230183746</v>
       </c>
       <c r="E154">
         <v>0.1855072463768116</v>
       </c>
       <c r="F154">
-        <v>0.4234233029806188</v>
+        <v>0.1749197523136735</v>
       </c>
     </row>
     <row r="155">
@@ -3768,13 +3768,13 @@
         <v>0.3085399449035813</v>
       </c>
       <c r="D155">
-        <v>0.2766600019045318</v>
+        <v>0.7233399980954682</v>
       </c>
       <c r="E155">
         <v>0.4057971014492754</v>
       </c>
       <c r="F155">
-        <v>0.4588154684680413</v>
+        <v>0.4155851988020676</v>
       </c>
     </row>
     <row r="156">
@@ -3790,13 +3790,13 @@
         <v>0.2506887052341598</v>
       </c>
       <c r="D156">
-        <v>0.3028656351362267</v>
+        <v>0.6971343648637733</v>
       </c>
       <c r="E156">
         <v>0.4057971014492754</v>
       </c>
       <c r="F156">
-        <v>0.3788685791770358</v>
+        <v>0.3324131583037961</v>
       </c>
     </row>
     <row r="157">
@@ -3812,13 +3812,13 @@
         <v>0.3471074380165289</v>
       </c>
       <c r="D157">
-        <v>0.2923748603324908</v>
+        <v>0.7076251396675092</v>
       </c>
       <c r="E157">
         <v>0.3739130434782609</v>
       </c>
       <c r="F157">
-        <v>0.4693966798973392</v>
+        <v>0.4170410584171564</v>
       </c>
     </row>
     <row r="158">
@@ -3834,13 +3834,13 @@
         <v>0.253443526170799</v>
       </c>
       <c r="D158">
-        <v>0.3381807179499318</v>
+        <v>0.6618192820500681</v>
       </c>
       <c r="E158">
         <v>0.3420289855072464</v>
       </c>
       <c r="F158">
-        <v>0.3741867471927992</v>
+        <v>0.3152528630713401</v>
       </c>
     </row>
     <row r="159">
@@ -3856,13 +3856,13 @@
         <v>0.5041322314049587</v>
       </c>
       <c r="D159">
-        <v>0.2409297624472485</v>
+        <v>0.7590702375527516</v>
       </c>
       <c r="E159">
         <v>0.4956521739130435</v>
       </c>
       <c r="F159">
-        <v>0.5762637806359321</v>
+        <v>0.5468801951415911</v>
       </c>
     </row>
     <row r="160">
@@ -3878,13 +3878,13 @@
         <v>0.6170798898071626</v>
       </c>
       <c r="D160">
-        <v>0.2137244380475525</v>
+        <v>0.7862755619524475</v>
       </c>
       <c r="E160">
         <v>0.6173913043478261</v>
       </c>
       <c r="F160">
-        <v>0.6576260343188087</v>
+        <v>0.6487571248381319</v>
       </c>
     </row>
     <row r="161">
@@ -3900,13 +3900,13 @@
         <v>0.9366391184573003</v>
       </c>
       <c r="D161">
-        <v>0.217069499325341</v>
+        <v>0.782930500674659</v>
       </c>
       <c r="E161">
         <v>0.8956521739130435</v>
       </c>
       <c r="F161">
-        <v>0.9548512852299961</v>
+        <v>0.9373242068247442</v>
       </c>
     </row>
     <row r="162">
@@ -3922,13 +3922,13 @@
         <v>0.7410468319559229</v>
       </c>
       <c r="D162">
-        <v>0.1951647094871382</v>
+        <v>0.8048352905128618</v>
       </c>
       <c r="E162">
         <v>0.7768115942028986</v>
       </c>
       <c r="F162">
-        <v>0.7541064634765848</v>
+        <v>0.7654768969564349</v>
       </c>
     </row>
     <row r="163">
@@ -3944,13 +3944,13 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="D163">
-        <v>0.2337888469355565</v>
+        <v>0.7662111530644434</v>
       </c>
       <c r="E163">
         <v>0.5797101449275363</v>
       </c>
       <c r="F163">
-        <v>0.6175543897710836</v>
+        <v>0.5918741564194029</v>
       </c>
     </row>
     <row r="164">
@@ -3966,13 +3966,13 @@
         <v>0.9366391184573003</v>
       </c>
       <c r="D164">
-        <v>0.1952824665659135</v>
+        <v>0.8047175334340865</v>
       </c>
       <c r="E164">
         <v>0.8521739130434783</v>
       </c>
       <c r="F164">
-        <v>0.8956663013480471</v>
+        <v>0.9090008340329925</v>
       </c>
     </row>
     <row r="165">
@@ -3988,13 +3988,13 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>0.2185470964916841</v>
+        <v>0.7814529035083159</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="F165">
-        <v>0.9729135278948744</v>
+        <v>0.9529863458593683</v>
       </c>
     </row>
     <row r="166">
@@ -4010,13 +4010,13 @@
         <v>0.7162534435261708</v>
       </c>
       <c r="D166">
-        <v>0.2090409819954023</v>
+        <v>0.7909590180045977</v>
       </c>
       <c r="E166">
         <v>0.6289855072463768</v>
       </c>
       <c r="F166">
-        <v>0.6904582551201573</v>
+        <v>0.6859477829961313</v>
       </c>
     </row>
     <row r="167">
@@ -4032,13 +4032,13 @@
         <v>0.1101928374655647</v>
       </c>
       <c r="D167">
-        <v>0.3288553066686981</v>
+        <v>0.6711446933313019</v>
       </c>
       <c r="E167">
         <v>0.2260869565217391</v>
       </c>
       <c r="F167">
-        <v>0.1635015783389339</v>
+        <v>0.139202735603208</v>
       </c>
     </row>
     <row r="168">
@@ -4054,13 +4054,13 @@
         <v>0.2038567493112948</v>
       </c>
       <c r="D168">
-        <v>0.3198613548675088</v>
+        <v>0.6801386451324912</v>
       </c>
       <c r="E168">
         <v>0.2782608695652175</v>
       </c>
       <c r="F168">
-        <v>0.3204980960331141</v>
+        <v>0.2756813379449815</v>
       </c>
     </row>
     <row r="169">
@@ -4076,13 +4076,13 @@
         <v>0.2066115702479339</v>
       </c>
       <c r="D169">
-        <v>0.2752520926702507</v>
+        <v>0.7247479073297494</v>
       </c>
       <c r="E169">
         <v>0.3101449275362319</v>
       </c>
       <c r="F169">
-        <v>0.3364966100925824</v>
+        <v>0.3053288012870943</v>
       </c>
     </row>
     <row r="170">
@@ -4098,13 +4098,13 @@
         <v>0.2672176308539945</v>
       </c>
       <c r="D170">
-        <v>0.2904247320662953</v>
+        <v>0.7095752679337047</v>
       </c>
       <c r="E170">
         <v>0.3420289855072464</v>
       </c>
       <c r="F170">
-        <v>0.3867881034045529</v>
+        <v>0.3444588283861598</v>
       </c>
     </row>
     <row r="171">
@@ -4120,13 +4120,13 @@
         <v>0.2424242424242425</v>
       </c>
       <c r="D171">
-        <v>0.3012151603688528</v>
+        <v>0.6987848396311471</v>
       </c>
       <c r="E171">
         <v>0.3101449275362319</v>
       </c>
       <c r="F171">
-        <v>0.3810000979116043</v>
+        <v>0.334938247284511</v>
       </c>
     </row>
     <row r="172">
@@ -4142,13 +4142,13 @@
         <v>0.3223140495867769</v>
       </c>
       <c r="D172">
-        <v>0.2704785092273546</v>
+        <v>0.7295214907726455</v>
       </c>
       <c r="E172">
         <v>0.3333333333333333</v>
       </c>
       <c r="F172">
-        <v>0.4146893683961729</v>
+        <v>0.3785491077725657</v>
       </c>
     </row>
     <row r="173">
@@ -4164,13 +4164,13 @@
         <v>0.3636363636363637</v>
       </c>
       <c r="D173">
-        <v>0.229495568608356</v>
+        <v>0.7705044313916439</v>
       </c>
       <c r="E173">
         <v>0.3884057971014493</v>
       </c>
       <c r="F173">
-        <v>0.4486752835412441</v>
+        <v>0.4326187610564583</v>
       </c>
     </row>
     <row r="174">
@@ -4186,13 +4186,13 @@
         <v>0.3002754820936639</v>
       </c>
       <c r="D174">
-        <v>0.2420510450782418</v>
+        <v>0.7579489549217582</v>
       </c>
       <c r="E174">
         <v>0.3362318840579711</v>
       </c>
       <c r="F174">
-        <v>0.3942478786834314</v>
+        <v>0.3735731104247742</v>
       </c>
     </row>
     <row r="175">
@@ -4208,13 +4208,13 @@
         <v>0.4159779614325069</v>
       </c>
       <c r="D175">
-        <v>0.2915391793770041</v>
+        <v>0.7084608206229959</v>
       </c>
       <c r="E175">
         <v>0.4782608695652174</v>
       </c>
       <c r="F175">
-        <v>0.5493380331405301</v>
+        <v>0.4885594184605232</v>
       </c>
     </row>
     <row r="176">
@@ -4230,13 +4230,13 @@
         <v>0.1212121212121212</v>
       </c>
       <c r="D176">
-        <v>0.1518501358135373</v>
+        <v>0.8481498641864627</v>
       </c>
       <c r="E176">
         <v>0.1217391304347826</v>
       </c>
       <c r="F176">
-        <v>0.2136823031889934</v>
+        <v>0.233994636720341</v>
       </c>
     </row>
     <row r="177">
@@ -4252,13 +4252,13 @@
         <v>0.2066115702479339</v>
       </c>
       <c r="D177">
-        <v>0.08476855600975762</v>
+        <v>0.9152314439902424</v>
       </c>
       <c r="E177">
         <v>0.3130434782608696</v>
       </c>
       <c r="F177">
-        <v>0.3140249704521273</v>
+        <v>0.4054723221964953</v>
       </c>
     </row>
     <row r="178">
@@ -4274,13 +4274,13 @@
         <v>0.2479338842975207</v>
       </c>
       <c r="D178">
-        <v>0.747927485273629</v>
+        <v>0.252072514726371</v>
       </c>
       <c r="E178">
         <v>0.127536231884058</v>
       </c>
       <c r="F178">
-        <v>0.393874127834007</v>
+        <v>0.2137700943000208</v>
       </c>
     </row>
     <row r="179">
@@ -4296,13 +4296,13 @@
         <v>0.2286501377410469</v>
       </c>
       <c r="D179">
-        <v>0.1001741223701936</v>
+        <v>0.8998258776298064</v>
       </c>
       <c r="E179">
         <v>0.3043478260869565</v>
       </c>
       <c r="F179">
-        <v>0.3140637539324204</v>
+        <v>0.387294691766261</v>
       </c>
     </row>
     <row r="180">
@@ -4318,13 +4318,13 @@
         <v>0.06611570247933884</v>
       </c>
       <c r="D180">
-        <v>0.1699377716336798</v>
+        <v>0.8300622283663202</v>
       </c>
       <c r="E180">
         <v>0.1188405797101449</v>
       </c>
       <c r="F180">
-        <v>0.1625889978862897</v>
+        <v>0.172174698681659</v>
       </c>
     </row>
     <row r="181">
@@ -4340,13 +4340,13 @@
         <v>0.3112947658402204</v>
       </c>
       <c r="D181">
-        <v>0.435764234098044</v>
+        <v>0.5642357659019559</v>
       </c>
       <c r="E181">
         <v>0.04927536231884058</v>
       </c>
       <c r="F181">
-        <v>0.2640167693824891</v>
+        <v>0.2006119336927087</v>
       </c>
     </row>
     <row r="182">
@@ -4362,13 +4362,13 @@
         <v>0.2727272727272728</v>
       </c>
       <c r="D182">
-        <v>0.3405501290567397</v>
+        <v>0.6594498709432604</v>
       </c>
       <c r="E182">
         <v>0.04347826086956522</v>
       </c>
       <c r="F182">
-        <v>0.2279610288298447</v>
+        <v>0.1915507192581742</v>
       </c>
     </row>
     <row r="183">
@@ -4384,13 +4384,13 @@
         <v>0.2479338842975207</v>
       </c>
       <c r="D183">
-        <v>0.3424530107877332</v>
+        <v>0.6575469892122667</v>
       </c>
       <c r="E183">
         <v>0.07246376811594203</v>
       </c>
       <c r="F183">
-        <v>0.231301072241037</v>
+        <v>0.1939465646157604</v>
       </c>
     </row>
     <row r="184">
@@ -4406,7 +4406,7 @@
         <v>0.2479338842975207</v>
       </c>
       <c r="D184">
-        <v>0.3770431963373119</v>
+        <v>0.622956803662688</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -4428,13 +4428,13 @@
         <v>0.2341597796143251</v>
       </c>
       <c r="D185">
-        <v>0.3864191543437529</v>
+        <v>0.613580845656247</v>
       </c>
       <c r="E185">
         <v>0.05507246376811593</v>
       </c>
       <c r="F185">
-        <v>0.2194267458179499</v>
+        <v>0.1754550381884556</v>
       </c>
     </row>
     <row r="186">
@@ -4450,13 +4450,13 @@
         <v>0.2286501377410469</v>
       </c>
       <c r="D186">
-        <v>0.3926241926081012</v>
+        <v>0.6073758073918988</v>
       </c>
       <c r="E186">
         <v>0.03188405797101448</v>
       </c>
       <c r="F186">
-        <v>0.2156786066040796</v>
+        <v>0.171336610632067</v>
       </c>
     </row>
     <row r="187">
@@ -4472,13 +4472,13 @@
         <v>0.2258953168044077</v>
       </c>
       <c r="D187">
-        <v>0.4844753215103552</v>
+        <v>0.5155246784896448</v>
       </c>
       <c r="E187">
         <v>0.04637681159420289</v>
       </c>
       <c r="F187">
-        <v>0.2204363152959155</v>
+        <v>0.1594779289859606</v>
       </c>
     </row>
     <row r="188">
@@ -4494,13 +4494,13 @@
         <v>0.2451790633608816</v>
       </c>
       <c r="D188">
-        <v>0.5185589631763707</v>
+        <v>0.4814410368236293</v>
       </c>
       <c r="E188">
         <v>0.04637681159420289</v>
       </c>
       <c r="F188">
-        <v>0.2449534897136658</v>
+        <v>0.1712745618439739</v>
       </c>
     </row>
     <row r="189">
@@ -4516,13 +4516,13 @@
         <v>0.2561983471074381</v>
       </c>
       <c r="D189">
-        <v>0.4376369623547093</v>
+        <v>0.5623630376452907</v>
       </c>
       <c r="E189">
         <v>0.02318840579710144</v>
       </c>
       <c r="F189">
-        <v>0.2041998718787092</v>
+        <v>0.1548653123040154</v>
       </c>
     </row>
     <row r="190">
@@ -4538,13 +4538,13 @@
         <v>0.1735537190082645</v>
       </c>
       <c r="D190">
-        <v>0.3848247469503519</v>
+        <v>0.6151752530496482</v>
       </c>
       <c r="E190">
         <v>0.0753623188405797</v>
       </c>
       <c r="F190">
-        <v>0.1555467688285931</v>
+        <v>0.1245856304057539</v>
       </c>
     </row>
     <row r="191">
@@ -4560,13 +4560,13 @@
         <v>0.2121212121212122</v>
       </c>
       <c r="D191">
-        <v>0.4329635054711795</v>
+        <v>0.5670364945288205</v>
       </c>
       <c r="E191">
         <v>0.02608695652173912</v>
       </c>
       <c r="F191">
-        <v>0.1797921475160305</v>
+        <v>0.1370041251819894</v>
       </c>
     </row>
     <row r="192">
@@ -4582,13 +4582,13 @@
         <v>0.253443526170799</v>
       </c>
       <c r="D192">
-        <v>0.4161321674216797</v>
+        <v>0.5838678325783203</v>
       </c>
       <c r="E192">
         <v>0.08405797101449274</v>
       </c>
       <c r="F192">
-        <v>0.2572872602803824</v>
+        <v>0.1994628828613908</v>
       </c>
     </row>
     <row r="193">
@@ -4604,13 +4604,13 @@
         <v>0.03856749311294766</v>
       </c>
       <c r="D193">
-        <v>0.05140166822471606</v>
+        <v>0.948598331775284</v>
       </c>
       <c r="E193">
         <v>0.2057971014492754</v>
       </c>
       <c r="F193">
-        <v>0.09185028027449144</v>
+        <v>0.1356062685008555</v>
       </c>
     </row>
     <row r="194">
@@ -4626,13 +4626,13 @@
         <v>0.0440771349862259</v>
       </c>
       <c r="D194">
-        <v>0.07157879376654203</v>
+        <v>0.928421206233458</v>
       </c>
       <c r="E194">
         <v>0.2173913043478261</v>
       </c>
       <c r="F194">
-        <v>0.1123868957695137</v>
+        <v>0.1519248579418667</v>
       </c>
     </row>
     <row r="195">
@@ -4648,13 +4648,13 @@
         <v>0.02479338842975207</v>
       </c>
       <c r="D195">
-        <v>0.06090531943906347</v>
+        <v>0.9390946805609365</v>
       </c>
       <c r="E195">
         <v>0.2173913043478261</v>
       </c>
       <c r="F195">
-        <v>0.09884199970708786</v>
+        <v>0.139517297774534</v>
       </c>
     </row>
     <row r="196">
@@ -4670,13 +4670,13 @@
         <v>0.0578512396694215</v>
       </c>
       <c r="D196">
-        <v>0.04845783962529546</v>
+        <v>0.9515421603747045</v>
       </c>
       <c r="E196">
         <v>0.3101449275362319</v>
       </c>
       <c r="F196">
-        <v>0.1060317806697466</v>
+        <v>0.1589919170208896</v>
       </c>
     </row>
     <row r="197">
@@ -4692,13 +4692,13 @@
         <v>0.002754820936639121</v>
       </c>
       <c r="D197">
-        <v>0.04439000667324134</v>
+        <v>0.9556099933267587</v>
       </c>
       <c r="E197">
         <v>0.2376811594202898</v>
       </c>
       <c r="F197">
-        <v>0.05678097127935806</v>
+        <v>0.08712136663513151</v>
       </c>
     </row>
     <row r="198">
@@ -4714,13 +4714,13 @@
         <v>0.09641873278236913</v>
       </c>
       <c r="D198">
-        <v>0.08333361216682285</v>
+        <v>0.9166663878331771</v>
       </c>
       <c r="E198">
         <v>0.3797101449275363</v>
       </c>
       <c r="F198">
-        <v>0.1842797008167264</v>
+        <v>0.2390552399286146</v>
       </c>
     </row>
     <row r="199">
@@ -4736,13 +4736,13 @@
         <v>0.06336088154269974</v>
       </c>
       <c r="D199">
-        <v>0.04978622064553248</v>
+        <v>0.9502137793544675</v>
       </c>
       <c r="E199">
         <v>0.272463768115942</v>
       </c>
       <c r="F199">
-        <v>0.125731178393383</v>
+        <v>0.1871949037257903</v>
       </c>
     </row>
     <row r="200">
@@ -4758,13 +4758,13 @@
         <v>0.09090909090909093</v>
       </c>
       <c r="D200">
-        <v>0.04201029464340265</v>
+        <v>0.9579897053565973</v>
       </c>
       <c r="E200">
         <v>0.3362318840579711</v>
       </c>
       <c r="F200">
-        <v>0.1673356640447396</v>
+        <v>0.2604730432940213</v>
       </c>
     </row>
     <row r="201">
@@ -4780,13 +4780,13 @@
         <v>0.09366391184573003</v>
       </c>
       <c r="D201">
-        <v>0.02773603902103001</v>
+        <v>0.9722639609789699</v>
       </c>
       <c r="E201">
         <v>0.3884057971014493</v>
       </c>
       <c r="F201">
-        <v>0.1274733618998691</v>
+        <v>0.2209415370344079</v>
       </c>
     </row>
     <row r="202">
@@ -4802,13 +4802,13 @@
         <v>0.02754820936639119</v>
       </c>
       <c r="D202">
-        <v>0.05962068846167767</v>
+        <v>0.9403793115383223</v>
       </c>
       <c r="E202">
         <v>0.3043478260869565</v>
       </c>
       <c r="F202">
-        <v>0.07342701003454975</v>
+        <v>0.1042330288652015</v>
       </c>
     </row>
     <row r="203">
@@ -4824,13 +4824,13 @@
         <v>0.06887052341597795</v>
       </c>
       <c r="D203">
-        <v>0.05411824622509982</v>
+        <v>0.9458817537749001</v>
       </c>
       <c r="E203">
         <v>0.2231884057971014</v>
       </c>
       <c r="F203">
-        <v>0.15012402828689</v>
+        <v>0.2186484922391428</v>
       </c>
     </row>
     <row r="204">
@@ -4846,13 +4846,13 @@
         <v>0.07988980716253444</v>
       </c>
       <c r="D204">
-        <v>0.02707528941535793</v>
+        <v>0.972924710584642</v>
       </c>
       <c r="E204">
         <v>0.2869565217391304</v>
       </c>
       <c r="F204">
-        <v>0.1395269729739156</v>
+        <v>0.2433367470242034</v>
       </c>
     </row>
     <row r="205">
@@ -4868,13 +4868,13 @@
         <v>0.1570247933884298</v>
       </c>
       <c r="D205">
-        <v>0.02723409125982907</v>
+        <v>0.9727659087401709</v>
       </c>
       <c r="E205">
         <v>0.2898550724637681</v>
       </c>
       <c r="F205">
-        <v>0.1696800051411401</v>
+        <v>0.2954796161577027</v>
       </c>
     </row>
     <row r="206">
@@ -4890,13 +4890,13 @@
         <v>0.1184573002754821</v>
       </c>
       <c r="D206">
-        <v>0.03664107597109741</v>
+        <v>0.9633589240289026</v>
       </c>
       <c r="E206">
         <v>0.3855072463768116</v>
       </c>
       <c r="F206">
-        <v>0.1885893611552415</v>
+        <v>0.3041901591393216</v>
       </c>
     </row>
     <row r="207">
@@ -4912,13 +4912,13 @@
         <v>0.05509641873278236</v>
       </c>
       <c r="D207">
-        <v>0.02814267556219176</v>
+        <v>0.9718573244378083</v>
       </c>
       <c r="E207">
         <v>0.2144927536231884</v>
       </c>
       <c r="F207">
-        <v>0.08727630696163864</v>
+        <v>0.1507053386479764</v>
       </c>
     </row>
     <row r="208">
@@ -4934,13 +4934,13 @@
         <v>0.04132231404958677</v>
       </c>
       <c r="D208">
-        <v>0.1498618543961042</v>
+        <v>0.8501381456038959</v>
       </c>
       <c r="E208">
         <v>0.1420289855072464</v>
       </c>
       <c r="F208">
-        <v>0.08456757609927046</v>
+        <v>0.09296649921065778</v>
       </c>
     </row>
     <row r="209">
@@ -4956,13 +4956,13 @@
         <v>0.06887052341597795</v>
       </c>
       <c r="D209">
-        <v>0.060758077896518</v>
+        <v>0.939241922103482</v>
       </c>
       <c r="E209">
         <v>0.2434782608695652</v>
       </c>
       <c r="F209">
-        <v>0.1427051389723889</v>
+        <v>0.2015607508475399</v>
       </c>
     </row>
     <row r="210">
@@ -4978,13 +4978,13 @@
         <v>0.2479338842975207</v>
       </c>
       <c r="D210">
-        <v>0.1054969172105343</v>
+        <v>0.8945030827894658</v>
       </c>
       <c r="E210">
         <v>0.1507246376811594</v>
       </c>
       <c r="F210">
-        <v>0.2791850422235593</v>
+        <v>0.3393521920182537</v>
       </c>
     </row>
     <row r="211">
@@ -5000,13 +5000,13 @@
         <v>0.2396694214876033</v>
       </c>
       <c r="D211">
-        <v>0.1228068680123524</v>
+        <v>0.8771931319876476</v>
       </c>
       <c r="E211">
         <v>0.2956521739130434</v>
       </c>
       <c r="F211">
-        <v>0.315176222015333</v>
+        <v>0.3670240990630106</v>
       </c>
     </row>
     <row r="212">
@@ -5022,13 +5022,13 @@
         <v>0.2038567493112948</v>
       </c>
       <c r="D212">
-        <v>0.1168820086923093</v>
+        <v>0.8831179913076906</v>
       </c>
       <c r="E212">
         <v>0.2</v>
       </c>
       <c r="F212">
-        <v>0.263891805194793</v>
+        <v>0.3116496651330603</v>
       </c>
     </row>
     <row r="213">
@@ -5044,13 +5044,13 @@
         <v>0.2892561983471075</v>
       </c>
       <c r="D213">
-        <v>0.1595478871986387</v>
+        <v>0.8404521128013613</v>
       </c>
       <c r="E213">
         <v>0.1768115942028986</v>
       </c>
       <c r="F213">
-        <v>0.3364362328791616</v>
+        <v>0.3630623668491558</v>
       </c>
     </row>
     <row r="214">
@@ -5066,13 +5066,13 @@
         <v>0.184573002754821</v>
       </c>
       <c r="D214">
-        <v>0.1229548310707463</v>
+        <v>0.8770451689292538</v>
       </c>
       <c r="E214">
         <v>0.1942028985507246</v>
       </c>
       <c r="F214">
-        <v>0.2740240895517499</v>
+        <v>0.3189927615804697</v>
       </c>
     </row>
     <row r="215">
@@ -5088,13 +5088,13 @@
         <v>0.3140495867768595</v>
       </c>
       <c r="D215">
-        <v>0.1111666529217692</v>
+        <v>0.8888333470782308</v>
       </c>
       <c r="E215">
         <v>0.4376811594202899</v>
       </c>
       <c r="F215">
-        <v>0.3821432256132637</v>
+        <v>0.4577313009863011</v>
       </c>
     </row>
     <row r="216">
@@ -5110,13 +5110,13 @@
         <v>0.3002754820936639</v>
       </c>
       <c r="D216">
-        <v>0.122513160381464</v>
+        <v>0.877486839618536</v>
       </c>
       <c r="E216">
         <v>0.3333333333333333</v>
       </c>
       <c r="F216">
-        <v>0.351880870681433</v>
+        <v>0.410046509317656</v>
       </c>
     </row>
     <row r="217">
@@ -5132,13 +5132,13 @@
         <v>0.08264462809917354</v>
       </c>
       <c r="D217">
-        <v>0.03728040139882761</v>
+        <v>0.9627195986011724</v>
       </c>
       <c r="E217">
         <v>0.3739130434782609</v>
       </c>
       <c r="F217">
-        <v>0.144455971020237</v>
+        <v>0.2319601069657087</v>
       </c>
     </row>
     <row r="218">
@@ -5154,13 +5154,13 @@
         <v>0.1570247933884298</v>
       </c>
       <c r="D218">
-        <v>0.05215270890663583</v>
+        <v>0.9478472910933642</v>
       </c>
       <c r="E218">
         <v>0.7304347826086957</v>
       </c>
       <c r="F218">
-        <v>0.2664951686883579</v>
+        <v>0.3919473293892207</v>
       </c>
     </row>
     <row r="219">
@@ -5176,13 +5176,13 @@
         <v>0.2727272727272728</v>
       </c>
       <c r="D219">
-        <v>0.00424601216462722</v>
+        <v>0.9957539878353728</v>
       </c>
       <c r="E219">
         <v>0.4927536231884058</v>
       </c>
       <c r="F219">
-        <v>0.1624727134813027</v>
+        <v>0.4528935472061776</v>
       </c>
     </row>
     <row r="220">
@@ -5198,13 +5198,13 @@
         <v>0.278236914600551</v>
       </c>
       <c r="D220">
-        <v>0.03914302168632058</v>
+        <v>0.9608569783136794</v>
       </c>
       <c r="E220">
         <v>0.7594202898550725</v>
       </c>
       <c r="F220">
-        <v>0.3652405238115324</v>
+        <v>0.5790993148454695</v>
       </c>
     </row>
     <row r="221">
@@ -5220,13 +5220,13 @@
         <v>0.2369146005509642</v>
       </c>
       <c r="D221">
-        <v>0.04027025483149957</v>
+        <v>0.9597297451685004</v>
       </c>
       <c r="E221">
         <v>0.6463768115942029</v>
       </c>
       <c r="F221">
-        <v>0.3233934023072911</v>
+        <v>0.5089736438526166</v>
       </c>
     </row>
     <row r="222">
@@ -5242,13 +5242,13 @@
         <v>0.01652892561983471</v>
       </c>
       <c r="D222">
-        <v>0.1589231272183294</v>
+        <v>0.8410768727816706</v>
       </c>
       <c r="E222">
         <v>0.1681159420289855</v>
       </c>
       <c r="F222">
-        <v>0.1090163234590575</v>
+        <v>0.1177813893196957</v>
       </c>
     </row>
     <row r="223">
@@ -5264,13 +5264,13 @@
         <v>0.3581267217630854</v>
       </c>
       <c r="D223">
-        <v>0.0303828279792254</v>
+        <v>0.9696171720207746</v>
       </c>
       <c r="E223">
         <v>0.8260869565217392</v>
       </c>
       <c r="F223">
-        <v>0.3703727272651993</v>
+        <v>0.6270541110799064</v>
       </c>
     </row>
     <row r="224">
@@ -5286,13 +5286,13 @@
         <v>0.05509641873278236</v>
       </c>
       <c r="D224">
-        <v>0.05992294073487853</v>
+        <v>0.9400770592651215</v>
       </c>
       <c r="E224">
         <v>0.5391304347826087</v>
       </c>
       <c r="F224">
-        <v>0.1544663767042623</v>
+        <v>0.2189775224032453</v>
       </c>
     </row>
     <row r="225">
@@ -5308,13 +5308,13 @@
         <v>0.3388429752066116</v>
       </c>
       <c r="D225">
-        <v>0.6038579224119155</v>
+        <v>0.3961420775880845</v>
       </c>
       <c r="E225">
         <v>0.08115942028985507</v>
       </c>
       <c r="F225">
-        <v>0.3980632526267834</v>
+        <v>0.2551844068322185</v>
       </c>
     </row>
     <row r="226">
@@ -5330,13 +5330,13 @@
         <v>0.4600550964187328</v>
       </c>
       <c r="D226">
-        <v>0.4095381201641791</v>
+        <v>0.590461879835821</v>
       </c>
       <c r="E226">
         <v>0.1507246376811594</v>
       </c>
       <c r="F226">
-        <v>0.4954912909681292</v>
+        <v>0.3867527431037189</v>
       </c>
     </row>
     <row r="227">
@@ -5352,13 +5352,13 @@
         <v>0.3140495867768595</v>
       </c>
       <c r="D227">
-        <v>0.3889438609302184</v>
+        <v>0.6110561390697816</v>
       </c>
       <c r="E227">
         <v>0.05217391304347826</v>
       </c>
       <c r="F227">
-        <v>0.3117887113427515</v>
+        <v>0.2486462586247185</v>
       </c>
     </row>
     <row r="228">
@@ -5374,13 +5374,13 @@
         <v>0.440771349862259</v>
       </c>
       <c r="D228">
-        <v>0.4283486357454765</v>
+        <v>0.5716513642545235</v>
       </c>
       <c r="E228">
         <v>0.06956521739130433</v>
       </c>
       <c r="F228">
-        <v>0.4127502308291856</v>
+        <v>0.3160048753328715</v>
       </c>
     </row>
     <row r="229">
@@ -5396,13 +5396,13 @@
         <v>0.3223140495867769</v>
       </c>
       <c r="D229">
-        <v>0.4323533347842058</v>
+        <v>0.5676466652157942</v>
       </c>
       <c r="E229">
         <v>0.09565217391304347</v>
       </c>
       <c r="F229">
-        <v>0.3838251550822409</v>
+        <v>0.2926619403267688</v>
       </c>
     </row>
     <row r="230">
@@ -5418,13 +5418,13 @@
         <v>0.4132231404958678</v>
       </c>
       <c r="D230">
-        <v>0.3877032578760262</v>
+        <v>0.6122967421239738</v>
       </c>
       <c r="E230">
         <v>0.0927536231884058</v>
       </c>
       <c r="F230">
-        <v>0.3926247003527301</v>
+        <v>0.3135207119174206</v>
       </c>
     </row>
     <row r="231">
@@ -5440,13 +5440,13 @@
         <v>0.3663911845730028</v>
       </c>
       <c r="D231">
-        <v>0.4076897526681018</v>
+        <v>0.5923102473318982</v>
       </c>
       <c r="E231">
         <v>0.09565217391304347</v>
       </c>
       <c r="F231">
-        <v>0.373809282985236</v>
+        <v>0.2923330643284849</v>
       </c>
     </row>
     <row r="232">
@@ -5462,13 +5462,13 @@
         <v>0.3112947658402204</v>
       </c>
       <c r="D232">
-        <v>0.4953035246125702</v>
+        <v>0.5046964753874299</v>
       </c>
       <c r="E232">
         <v>0.06666666666666667</v>
       </c>
       <c r="F232">
-        <v>0.3306634525026814</v>
+        <v>0.2366458558014176</v>
       </c>
     </row>
     <row r="233">
@@ -5484,13 +5484,13 @@
         <v>0.1239669421487603</v>
       </c>
       <c r="D233">
-        <v>0.1578708087926603</v>
+        <v>0.8421291912073398</v>
       </c>
       <c r="E233">
         <v>0.1420289855072464</v>
       </c>
       <c r="F233">
-        <v>0.2029710994729002</v>
+        <v>0.2197234554806253</v>
       </c>
     </row>
     <row r="234">
@@ -5506,13 +5506,13 @@
         <v>0.1074380165289256</v>
       </c>
       <c r="D234">
-        <v>0.1996642041325303</v>
+        <v>0.8003357958674697</v>
       </c>
       <c r="E234">
         <v>0.1072463768115942</v>
       </c>
       <c r="F234">
-        <v>0.1862779867515804</v>
+        <v>0.1877489587929781</v>
       </c>
     </row>
     <row r="235">
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>0.2337412538939724</v>
+        <v>0.7662587461060276</v>
       </c>
       <c r="E235">
         <v>0.1478260869565217</v>
@@ -5550,13 +5550,13 @@
         <v>0.07162534435261708</v>
       </c>
       <c r="D236">
-        <v>0.1234255664204788</v>
+        <v>0.8765744335795211</v>
       </c>
       <c r="E236">
         <v>0.2521739130434782</v>
       </c>
       <c r="F236">
-        <v>0.1873331372461737</v>
+        <v>0.2178379383217153</v>
       </c>
     </row>
     <row r="237">
@@ -5572,13 +5572,13 @@
         <v>0.1735537190082645</v>
       </c>
       <c r="D237">
-        <v>0.1122874732942088</v>
+        <v>0.8877125267057911</v>
       </c>
       <c r="E237">
         <v>0.3101449275362319</v>
       </c>
       <c r="F237">
-        <v>0.2931082249272653</v>
+        <v>0.3500952828945822</v>
       </c>
     </row>
     <row r="238">
@@ -5594,13 +5594,13 @@
         <v>0.2727272727272728</v>
       </c>
       <c r="D238">
-        <v>0.1237950687244818</v>
+        <v>0.8762049312755182</v>
       </c>
       <c r="E238">
         <v>0.4347826086956522</v>
       </c>
       <c r="F238">
-        <v>0.4389742409234544</v>
+        <v>0.5100204822628385</v>
       </c>
     </row>
   </sheetData>
